--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Artn-Ret.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Artn-Ret.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Artn</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,40 +543,40 @@
         <v>2.210625</v>
       </c>
       <c r="I2">
-        <v>0.7580771545508633</v>
+        <v>0.5924430993326582</v>
       </c>
       <c r="J2">
-        <v>0.7580771545508633</v>
+        <v>0.5924430993326582</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.917113</v>
+        <v>4.328495333333334</v>
       </c>
       <c r="N2">
-        <v>5.751339</v>
+        <v>12.985486</v>
       </c>
       <c r="O2">
-        <v>0.1346819610083227</v>
+        <v>0.2325244328639614</v>
       </c>
       <c r="P2">
-        <v>0.1346819610083227</v>
+        <v>0.2325244328639614</v>
       </c>
       <c r="Q2">
-        <v>1.412672641875</v>
+        <v>3.18955999875</v>
       </c>
       <c r="R2">
-        <v>12.714053776875</v>
+        <v>28.70603998875</v>
       </c>
       <c r="S2">
-        <v>0.1020993177705196</v>
+        <v>0.1377574956764939</v>
       </c>
       <c r="T2">
-        <v>0.1020993177705196</v>
+        <v>0.1377574956764939</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -602,10 +605,10 @@
         <v>2.210625</v>
       </c>
       <c r="I3">
-        <v>0.7580771545508633</v>
+        <v>0.5924430993326582</v>
       </c>
       <c r="J3">
-        <v>0.7580771545508633</v>
+        <v>0.5924430993326582</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +623,10 @@
         <v>22.084618</v>
       </c>
       <c r="O3">
-        <v>0.5171664651239829</v>
+        <v>0.3954579193622197</v>
       </c>
       <c r="P3">
-        <v>0.5171664651239828</v>
+        <v>0.3954579193622196</v>
       </c>
       <c r="Q3">
         <v>5.424534296249999</v>
@@ -632,10 +635,10 @@
         <v>48.82080866625</v>
       </c>
       <c r="S3">
-        <v>0.3920520823103172</v>
+        <v>0.2342863154025978</v>
       </c>
       <c r="T3">
-        <v>0.3920520823103172</v>
+        <v>0.2342863154025978</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -664,10 +667,10 @@
         <v>2.210625</v>
       </c>
       <c r="I4">
-        <v>0.7580771545508633</v>
+        <v>0.5924430993326582</v>
       </c>
       <c r="J4">
-        <v>0.7580771545508633</v>
+        <v>0.5924430993326582</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,42 +679,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.955718666666667</v>
+        <v>6.912382333333333</v>
       </c>
       <c r="N4">
-        <v>14.867156</v>
+        <v>20.737147</v>
       </c>
       <c r="O4">
-        <v>0.3481515738676944</v>
+        <v>0.3713294477689628</v>
       </c>
       <c r="P4">
-        <v>0.3481515738676944</v>
+        <v>0.3713294477689628</v>
       </c>
       <c r="Q4">
-        <v>3.6517451925</v>
+        <v>5.093561731875</v>
       </c>
       <c r="R4">
-        <v>32.86570673249999</v>
+        <v>45.842055586875</v>
       </c>
       <c r="S4">
-        <v>0.2639257544700265</v>
+        <v>0.2199915689097287</v>
       </c>
       <c r="T4">
-        <v>0.2639257544700264</v>
+        <v>0.2199915689097287</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -720,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2351566666666667</v>
+        <v>0.7368749999999999</v>
       </c>
       <c r="H5">
-        <v>0.70547</v>
+        <v>2.210625</v>
       </c>
       <c r="I5">
-        <v>0.2419228454491366</v>
+        <v>0.5924430993326582</v>
       </c>
       <c r="J5">
-        <v>0.2419228454491366</v>
+        <v>0.5924430993326582</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.917113</v>
+        <v>0.012811</v>
       </c>
       <c r="N5">
-        <v>5.751339</v>
+        <v>0.038433</v>
       </c>
       <c r="O5">
-        <v>0.1346819610083227</v>
+        <v>0.0006882000048562394</v>
       </c>
       <c r="P5">
-        <v>0.1346819610083227</v>
+        <v>0.0006882000048562392</v>
       </c>
       <c r="Q5">
-        <v>0.4508219027033333</v>
+        <v>0.009440105625</v>
       </c>
       <c r="R5">
-        <v>4.05739712433</v>
+        <v>0.084960950625</v>
       </c>
       <c r="S5">
-        <v>0.03258264323780311</v>
+        <v>0.0004077193438377809</v>
       </c>
       <c r="T5">
-        <v>0.0325826432378031</v>
+        <v>0.0004077193438377807</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -782,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2351566666666667</v>
+        <v>0.3936963333333334</v>
       </c>
       <c r="H6">
-        <v>0.70547</v>
+        <v>1.181089</v>
       </c>
       <c r="I6">
-        <v>0.2419228454491366</v>
+        <v>0.3165295008188679</v>
       </c>
       <c r="J6">
-        <v>0.2419228454491366</v>
+        <v>0.3165295008188679</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.361539333333333</v>
+        <v>4.328495333333334</v>
       </c>
       <c r="N6">
-        <v>22.084618</v>
+        <v>12.985486</v>
       </c>
       <c r="O6">
-        <v>0.5171664651239829</v>
+        <v>0.2325244328639614</v>
       </c>
       <c r="P6">
-        <v>0.5171664651239828</v>
+        <v>0.2325244328639614</v>
       </c>
       <c r="Q6">
-        <v>1.731115051162222</v>
+        <v>1.704112741583778</v>
       </c>
       <c r="R6">
-        <v>15.58003546046</v>
+        <v>15.337014674254</v>
       </c>
       <c r="S6">
-        <v>0.1251143828136656</v>
+        <v>0.07360084266262007</v>
       </c>
       <c r="T6">
-        <v>0.1251143828136656</v>
+        <v>0.07360084266262006</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -844,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2351566666666667</v>
+        <v>0.3936963333333334</v>
       </c>
       <c r="H7">
-        <v>0.70547</v>
+        <v>1.181089</v>
       </c>
       <c r="I7">
-        <v>0.2419228454491366</v>
+        <v>0.3165295008188679</v>
       </c>
       <c r="J7">
-        <v>0.2419228454491366</v>
+        <v>0.3165295008188679</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +865,400 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.955718666666667</v>
+        <v>7.361539333333333</v>
       </c>
       <c r="N7">
-        <v>14.867156</v>
+        <v>22.084618</v>
       </c>
       <c r="O7">
-        <v>0.3481515738676944</v>
+        <v>0.3954579193622197</v>
       </c>
       <c r="P7">
-        <v>0.3481515738676944</v>
+        <v>0.3954579193622196</v>
       </c>
       <c r="Q7">
-        <v>1.165370282591111</v>
+        <v>2.898211043222445</v>
       </c>
       <c r="R7">
-        <v>10.48833254332</v>
+        <v>26.083899389002</v>
       </c>
       <c r="S7">
-        <v>0.08422581939766791</v>
+        <v>0.1251740978105915</v>
       </c>
       <c r="T7">
-        <v>0.08422581939766789</v>
+        <v>0.1251740978105915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.3936963333333334</v>
+      </c>
+      <c r="H8">
+        <v>1.181089</v>
+      </c>
+      <c r="I8">
+        <v>0.3165295008188679</v>
+      </c>
+      <c r="J8">
+        <v>0.3165295008188679</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.912382333333333</v>
+      </c>
+      <c r="N8">
+        <v>20.737147</v>
+      </c>
+      <c r="O8">
+        <v>0.3713294477689628</v>
+      </c>
+      <c r="P8">
+        <v>0.3713294477689628</v>
+      </c>
+      <c r="Q8">
+        <v>2.721379579231445</v>
+      </c>
+      <c r="R8">
+        <v>24.492416213083</v>
+      </c>
+      <c r="S8">
+        <v>0.1175367247416557</v>
+      </c>
+      <c r="T8">
+        <v>0.1175367247416557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3936963333333334</v>
+      </c>
+      <c r="H9">
+        <v>1.181089</v>
+      </c>
+      <c r="I9">
+        <v>0.3165295008188679</v>
+      </c>
+      <c r="J9">
+        <v>0.3165295008188679</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.012811</v>
+      </c>
+      <c r="N9">
+        <v>0.038433</v>
+      </c>
+      <c r="O9">
+        <v>0.0006882000048562394</v>
+      </c>
+      <c r="P9">
+        <v>0.0006882000048562392</v>
+      </c>
+      <c r="Q9">
+        <v>0.005043643726333334</v>
+      </c>
+      <c r="R9">
+        <v>0.04539279353700001</v>
+      </c>
+      <c r="S9">
+        <v>0.0002178356040006879</v>
+      </c>
+      <c r="T9">
+        <v>0.0002178356040006879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.113219</v>
+      </c>
+      <c r="H10">
+        <v>0.339657</v>
+      </c>
+      <c r="I10">
+        <v>0.09102739984847392</v>
+      </c>
+      <c r="J10">
+        <v>0.09102739984847392</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.328495333333334</v>
+      </c>
+      <c r="N10">
+        <v>12.985486</v>
+      </c>
+      <c r="O10">
+        <v>0.2325244328639614</v>
+      </c>
+      <c r="P10">
+        <v>0.2325244328639614</v>
+      </c>
+      <c r="Q10">
+        <v>0.4900679131446667</v>
+      </c>
+      <c r="R10">
+        <v>4.410611218302</v>
+      </c>
+      <c r="S10">
+        <v>0.02116609452484744</v>
+      </c>
+      <c r="T10">
+        <v>0.02116609452484744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.113219</v>
+      </c>
+      <c r="H11">
+        <v>0.339657</v>
+      </c>
+      <c r="I11">
+        <v>0.09102739984847392</v>
+      </c>
+      <c r="J11">
+        <v>0.09102739984847392</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.361539333333333</v>
+      </c>
+      <c r="N11">
+        <v>22.084618</v>
+      </c>
+      <c r="O11">
+        <v>0.3954579193622197</v>
+      </c>
+      <c r="P11">
+        <v>0.3954579193622196</v>
+      </c>
+      <c r="Q11">
+        <v>0.8334661217806666</v>
+      </c>
+      <c r="R11">
+        <v>7.501195096026</v>
+      </c>
+      <c r="S11">
+        <v>0.03599750614903033</v>
+      </c>
+      <c r="T11">
+        <v>0.03599750614903033</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.113219</v>
+      </c>
+      <c r="H12">
+        <v>0.339657</v>
+      </c>
+      <c r="I12">
+        <v>0.09102739984847392</v>
+      </c>
+      <c r="J12">
+        <v>0.09102739984847392</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>6.912382333333333</v>
+      </c>
+      <c r="N12">
+        <v>20.737147</v>
+      </c>
+      <c r="O12">
+        <v>0.3713294477689628</v>
+      </c>
+      <c r="P12">
+        <v>0.3713294477689628</v>
+      </c>
+      <c r="Q12">
+        <v>0.7826130153976667</v>
+      </c>
+      <c r="R12">
+        <v>7.043517138578999</v>
+      </c>
+      <c r="S12">
+        <v>0.03380115411757839</v>
+      </c>
+      <c r="T12">
+        <v>0.03380115411757838</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.113219</v>
+      </c>
+      <c r="H13">
+        <v>0.339657</v>
+      </c>
+      <c r="I13">
+        <v>0.09102739984847392</v>
+      </c>
+      <c r="J13">
+        <v>0.09102739984847392</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.012811</v>
+      </c>
+      <c r="N13">
+        <v>0.038433</v>
+      </c>
+      <c r="O13">
+        <v>0.0006882000048562394</v>
+      </c>
+      <c r="P13">
+        <v>0.0006882000048562392</v>
+      </c>
+      <c r="Q13">
+        <v>0.001450448609</v>
+      </c>
+      <c r="R13">
+        <v>0.013054037481</v>
+      </c>
+      <c r="S13">
+        <v>6.26450570177706E-05</v>
+      </c>
+      <c r="T13">
+        <v>6.264505701777059E-05</v>
       </c>
     </row>
   </sheetData>
